--- a/PI-SA-2425-g164-Sprint2.xlsx
+++ b/PI-SA-2425-g164-Sprint2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnmte\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem2-pi-24.25-g164-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5029BAA-6D2D-46DC-9108-549A9FD4D52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C66F1-1CC6-46BA-B165-699C10766448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
   <si>
     <t>TeamID #</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>List A</t>
-  </si>
-  <si>
-    <t>Student 4</t>
   </si>
   <si>
     <t>Student 5</t>
@@ -1429,7 +1426,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1442,14 +1439,14 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1505,9 +1502,9 @@
         <f>C12</f>
         <v>1200941</v>
       </c>
-      <c r="G9" s="30" t="str">
+      <c r="G9" s="30">
         <f>C13</f>
-        <v>Student 4</v>
+        <v>1212151</v>
       </c>
       <c r="H9" s="30" t="str">
         <f>C14</f>
@@ -1595,26 +1592,34 @@
     </row>
     <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="58"/>
-      <c r="C13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="53"/>
+      <c r="C13" s="6">
+        <v>1212151</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>4</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="53">
+        <v>4</v>
+      </c>
       <c r="H13" s="24"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8"/>
-      <c r="L13" s="36" t="e">
+      <c r="L13" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="58"/>
       <c r="C14" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1632,7 +1637,7 @@
     <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="58"/>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1650,7 +1655,7 @@
     <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="58"/>
       <c r="C16" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1668,7 +1673,7 @@
     <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59"/>
       <c r="C17" s="28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -1694,15 +1699,15 @@
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="1"/>
         <v>4</v>
-      </c>
-      <c r="G18" s="33" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
       </c>
       <c r="H18" s="33" t="e">
         <f t="shared" si="1"/>
@@ -1724,7 +1729,7 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -1740,7 +1745,7 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -1756,7 +1761,7 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -1772,7 +1777,7 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -1802,7 +1807,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -1821,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -1839,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -1857,7 +1862,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -1875,7 +1880,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -1893,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -1911,7 +1916,7 @@
         <v>5</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -1970,22 +1975,22 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>22</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -2012,22 +2017,22 @@
       <c r="C4" s="66"/>
       <c r="D4" s="64"/>
       <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>27</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -2036,22 +2041,22 @@
       <c r="C5" s="66"/>
       <c r="D5" s="64"/>
       <c r="E5" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="J5" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2060,22 +2065,22 @@
       <c r="C6" s="18"/>
       <c r="D6" s="40"/>
       <c r="E6" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>33</v>
-      </c>
       <c r="J6" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2084,22 +2089,22 @@
       <c r="C7" s="18"/>
       <c r="D7" s="40"/>
       <c r="E7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2108,22 +2113,22 @@
       <c r="C8" s="18"/>
       <c r="D8" s="40"/>
       <c r="E8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J8" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2132,22 +2137,22 @@
       <c r="C9" s="18"/>
       <c r="D9" s="40"/>
       <c r="E9" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J9" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2156,22 +2161,22 @@
       <c r="C10" s="18"/>
       <c r="D10" s="40"/>
       <c r="E10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J10" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2180,22 +2185,22 @@
       <c r="C11" s="18"/>
       <c r="D11" s="40"/>
       <c r="E11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J11" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2204,22 +2209,22 @@
       <c r="C12" s="18"/>
       <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J12" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2228,22 +2233,22 @@
       <c r="C13" s="18"/>
       <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J13" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2252,22 +2257,22 @@
       <c r="C14" s="18"/>
       <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J14" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2276,22 +2281,22 @@
       <c r="C15" s="18"/>
       <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J15" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2300,22 +2305,22 @@
       <c r="C16" s="18"/>
       <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2324,22 +2329,22 @@
       <c r="C17" s="18"/>
       <c r="D17" s="40"/>
       <c r="E17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2348,22 +2353,22 @@
       <c r="C18" s="18"/>
       <c r="D18" s="40"/>
       <c r="E18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J18" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2372,22 +2377,22 @@
       <c r="C19" s="18"/>
       <c r="D19" s="40"/>
       <c r="E19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2396,22 +2401,22 @@
       <c r="C20" s="18"/>
       <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J20" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2420,22 +2425,22 @@
       <c r="C21" s="18"/>
       <c r="D21" s="40"/>
       <c r="E21" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J21" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2444,22 +2449,22 @@
       <c r="C22" s="18"/>
       <c r="D22" s="40"/>
       <c r="E22" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J22" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2468,22 +2473,22 @@
       <c r="C23" s="18"/>
       <c r="D23" s="40"/>
       <c r="E23" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J23" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2492,22 +2497,22 @@
       <c r="C24" s="18"/>
       <c r="D24" s="40"/>
       <c r="E24" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J24" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2516,22 +2521,22 @@
       <c r="C25" s="18"/>
       <c r="D25" s="40"/>
       <c r="E25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J25" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2540,22 +2545,22 @@
       <c r="C26" s="18"/>
       <c r="D26" s="40"/>
       <c r="E26" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J26" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2564,22 +2569,22 @@
       <c r="C27" s="18"/>
       <c r="D27" s="40"/>
       <c r="E27" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J27" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2588,22 +2593,22 @@
       <c r="C28" s="18"/>
       <c r="D28" s="40"/>
       <c r="E28" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J28" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2612,48 +2617,48 @@
       <c r="C29" s="18"/>
       <c r="D29" s="40"/>
       <c r="E29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J29" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="40"/>
       <c r="E30" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J30" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2662,22 +2667,22 @@
       <c r="C31" s="18"/>
       <c r="D31" s="40"/>
       <c r="E31" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="J31" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
@@ -2686,22 +2691,22 @@
       <c r="C32" s="18"/>
       <c r="D32" s="41"/>
       <c r="E32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="H32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>33</v>
-      </c>
       <c r="J32" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2738,6 +2743,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -2921,22 +2941,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2952,28 +2981,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/PI-SA-2425-g164-Sprint2.xlsx
+++ b/PI-SA-2425-g164-Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\sem2-pi-24.25-g164-repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1211199_isep_ipp_pt/Documents/24-25/2semestre/mdisc/entregaSprrint2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{922C66F1-1CC6-46BA-B165-699C10766448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5BE35417-82BA-4C86-A5AF-14ABDF311D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA42515-CA0E-4275-8F70-1F132AE42AB6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="41">
   <si>
     <t>TeamID #</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>List A</t>
-  </si>
-  <si>
-    <t>Student 5</t>
   </si>
   <si>
     <t>Student 6</t>
@@ -1425,37 +1422,37 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="6.19921875" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="7.875" customWidth="1"/>
+    <col min="4" max="12" width="7.8984375" customWidth="1"/>
     <col min="13" max="13" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1466,13 +1463,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:14" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="8" spans="1:14" ht="15.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="60" t="s">
@@ -1487,7 +1484,7 @@
       <c r="L8" s="61"/>
       <c r="M8" s="62"/>
     </row>
-    <row r="9" spans="1:14" ht="105.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="105.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="29">
@@ -1506,9 +1503,9 @@
         <f>C13</f>
         <v>1212151</v>
       </c>
-      <c r="H9" s="30" t="str">
+      <c r="H9" s="30">
         <f>C14</f>
-        <v>Student 5</v>
+        <v>1211199</v>
       </c>
       <c r="I9" s="30" t="str">
         <f>C15</f>
@@ -1526,28 +1523,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="57" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="25">
         <v>1230553</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
+      <c r="D10" s="53">
+        <v>5</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="27">
+        <v>3</v>
+      </c>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="27">
+        <v>5</v>
+      </c>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="35" t="e">
+      <c r="L10" s="35">
         <f t="shared" ref="L10:L17" si="0">AVERAGE(D10:K10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N10" s="55"/>
-    </row>
-    <row r="11" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="58"/>
       <c r="C11" s="6">
         <v>1230955</v>
@@ -1565,7 +1571,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="58"/>
       <c r="C12" s="56">
         <v>1200941</v>
@@ -1577,20 +1583,22 @@
         <v>5</v>
       </c>
       <c r="F12" s="53">
+        <v>3</v>
+      </c>
+      <c r="G12" s="24">
         <v>4</v>
       </c>
-      <c r="G12" s="24"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="8"/>
       <c r="L12" s="36">
         <f t="shared" si="0"/>
-        <v>4.666666666666667</v>
+        <v>4.25</v>
       </c>
       <c r="N12" s="55"/>
     </row>
-    <row r="13" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="58"/>
       <c r="C13" s="6">
         <v>1212151</v>
@@ -1616,28 +1624,38 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="58"/>
-      <c r="C14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="53"/>
+      <c r="C14" s="6">
+        <v>1211199</v>
+      </c>
+      <c r="D14" s="6">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6">
+        <v>3</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="53">
+        <v>5</v>
+      </c>
       <c r="I14" s="24"/>
       <c r="J14" s="6"/>
       <c r="K14" s="8"/>
-      <c r="L14" s="36" t="e">
+      <c r="L14" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="58"/>
       <c r="C15" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1652,10 +1670,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="58"/>
       <c r="C16" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1670,10 +1688,10 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="59"/>
       <c r="C17" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D17" s="28"/>
       <c r="E17" s="28"/>
@@ -1688,7 +1706,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="C18" s="32" t="s">
         <v>4</v>
@@ -1699,19 +1717,19 @@
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H18" s="33" t="e">
+        <v>3.5</v>
+      </c>
+      <c r="H18" s="33">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>5</v>
       </c>
       <c r="I18" s="33" t="e">
         <f t="shared" si="1"/>
@@ -1727,9 +1745,9 @@
       </c>
       <c r="L18" s="38"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="43"/>
@@ -1743,9 +1761,9 @@
       <c r="K20" s="43"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" s="46"/>
       <c r="C21" s="46"/>
@@ -1759,9 +1777,9 @@
       <c r="K21" s="46"/>
       <c r="L21" s="47"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" s="46"/>
       <c r="C22" s="46"/>
@@ -1775,9 +1793,9 @@
       <c r="K22" s="46"/>
       <c r="L22" s="47"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
@@ -1791,7 +1809,7 @@
       <c r="K23" s="46"/>
       <c r="L23" s="47"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
@@ -1805,9 +1823,9 @@
       <c r="K24" s="46"/>
       <c r="L24" s="47"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="46"/>
       <c r="C25" s="46"/>
@@ -1821,12 +1839,12 @@
       <c r="K25" s="46"/>
       <c r="L25" s="47"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="45">
         <v>0</v>
       </c>
       <c r="B26" s="46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
@@ -1839,12 +1857,12 @@
       <c r="K26" s="46"/>
       <c r="L26" s="47"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="45">
         <v>1</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="46"/>
@@ -1857,12 +1875,12 @@
       <c r="K27" s="46"/>
       <c r="L27" s="47"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="45">
         <v>2</v>
       </c>
       <c r="B28" s="46" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="46"/>
@@ -1875,12 +1893,12 @@
       <c r="K28" s="46"/>
       <c r="L28" s="47"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="45">
         <v>3</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="46"/>
       <c r="D29" s="46"/>
@@ -1893,12 +1911,12 @@
       <c r="K29" s="46"/>
       <c r="L29" s="47"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="45">
         <v>4</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C30" s="46"/>
       <c r="D30" s="46"/>
@@ -1911,12 +1929,12 @@
       <c r="K30" s="46"/>
       <c r="L30" s="47"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="45">
         <v>5</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -1929,7 +1947,7 @@
       <c r="K31" s="46"/>
       <c r="L31" s="47"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="50"/>
       <c r="B32" s="51"/>
       <c r="C32" s="51"/>
@@ -1965,32 +1983,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.09765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="5" max="10" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="B3" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="65" t="s">
+      <c r="C3" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="D3" s="63" t="s">
         <v>20</v>
-      </c>
-      <c r="D3" s="63" t="s">
-        <v>21</v>
       </c>
       <c r="E3" s="9">
         <v>0</v>
@@ -2011,702 +2029,702 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A4" s="58"/>
       <c r="B4" s="66"/>
       <c r="C4" s="66"/>
       <c r="D4" s="64"/>
       <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="58"/>
       <c r="B5" s="66"/>
       <c r="C5" s="66"/>
       <c r="D5" s="64"/>
       <c r="E5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="G5" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="I5" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="J5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="40"/>
       <c r="E6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="H6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="I6" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I6" s="21" t="s">
-        <v>32</v>
-      </c>
       <c r="J6" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="40"/>
       <c r="E7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="G7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J7" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
       <c r="D8" s="40"/>
       <c r="E8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J8" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="40"/>
       <c r="E9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="H9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="I9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J9" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="40"/>
       <c r="E10" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I10" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J10" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="40"/>
       <c r="E11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="H11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="I11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J11" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="40"/>
       <c r="E12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="H12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J12" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="40"/>
       <c r="E13" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="H13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J13" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="40"/>
       <c r="E14" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="H14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J14" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="18"/>
       <c r="C15" s="18"/>
       <c r="D15" s="40"/>
       <c r="E15" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J15" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="18"/>
       <c r="C16" s="18"/>
       <c r="D16" s="40"/>
       <c r="E16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="H16" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J16" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="40"/>
       <c r="E17" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="H17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I17" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J17" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="40"/>
       <c r="E18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J18" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="40"/>
       <c r="E19" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="H19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I19" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J19" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I20" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J20" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="40"/>
       <c r="E21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="5" t="s">
+      <c r="H21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J21" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="18"/>
       <c r="C22" s="18"/>
       <c r="D22" s="40"/>
       <c r="E22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J22" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="18"/>
       <c r="C23" s="18"/>
       <c r="D23" s="40"/>
       <c r="E23" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="H23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="I23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J23" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="40"/>
       <c r="E24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="H24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="I24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J24" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="40"/>
       <c r="E25" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="G25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="5" t="s">
+      <c r="H25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="I25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J25" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="40"/>
       <c r="E26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="G26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="H26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="I26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J26" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="40"/>
       <c r="E27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="H27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="I27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J27" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="40"/>
       <c r="E28" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="G28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="I28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J28" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="18"/>
       <c r="C29" s="18"/>
       <c r="D29" s="40"/>
       <c r="E29" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G29" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="I29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I29" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J29" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="18"/>
       <c r="C30" s="18"/>
       <c r="D30" s="40"/>
       <c r="E30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="G30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="I30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J30" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31" s="18"/>
       <c r="C31" s="18"/>
       <c r="D31" s="40"/>
       <c r="E31" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="G31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G31" s="5" t="s">
+      <c r="H31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="I31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="J31" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="15"/>
       <c r="B32" s="39"/>
       <c r="C32" s="18"/>
       <c r="D32" s="41"/>
       <c r="E32" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="G32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="H32" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H32" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="J32" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -2749,15 +2767,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005836243B3C47804EAF5FFDD9F066FCC7" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9d21ddf3f0b128e39c9d770c8c903166">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b0326308c339679ad994635f2c691325" ns2:_="">
     <xsd:import namespace="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
@@ -2941,6 +2950,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
@@ -2958,14 +2976,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23B77F7C-EE47-4FBD-B078-6536C1487A1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2981,4 +2991,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/PI-SA-2425-g164-Sprint2.xlsx
+++ b/PI-SA-2425-g164-Sprint2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myisepipp-my.sharepoint.com/personal/1211199_isep_ipp_pt/Documents/24-25/2semestre/mdisc/entregaSprrint2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\IdeaProjects\sem2-pi-24.25-g164-repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{5BE35417-82BA-4C86-A5AF-14ABDF311D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FA42515-CA0E-4275-8F70-1F132AE42AB6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29CDEE5-8E57-438A-923B-D6C2ADB82AA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Group and Self Assessment" sheetId="2" r:id="rId1"/>
@@ -1423,7 +1423,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1558,17 +1558,27 @@
       <c r="C11" s="6">
         <v>1230955</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="D11" s="7">
+        <v>5</v>
+      </c>
+      <c r="E11" s="53">
+        <v>4</v>
+      </c>
+      <c r="F11" s="24">
+        <v>4</v>
+      </c>
+      <c r="G11" s="6">
+        <v>4</v>
+      </c>
+      <c r="H11" s="6">
+        <v>5</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="36" t="e">
+      <c r="L11" s="36">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1588,13 +1598,15 @@
       <c r="G12" s="24">
         <v>4</v>
       </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6">
+        <v>5</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="8"/>
       <c r="L12" s="36">
         <f t="shared" si="0"/>
-        <v>4.25</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="N12" s="55"/>
     </row>
@@ -1615,13 +1627,15 @@
       <c r="G13" s="53">
         <v>4</v>
       </c>
-      <c r="H13" s="24"/>
+      <c r="H13" s="24">
+        <v>5</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="8"/>
       <c r="L13" s="36">
         <f t="shared" si="0"/>
-        <v>4.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -1717,15 +1731,15 @@
       </c>
       <c r="E18" s="33">
         <f t="shared" si="1"/>
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="F18" s="33">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="G18" s="33">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H18" s="33">
         <f t="shared" si="1"/>
@@ -2761,9 +2775,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2951,26 +2968,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2994,9 +3000,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F61419B8-A98A-41CD-95EE-48A4F975B8D1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D8D82CB-2E6F-4A14-B6B4-DFDD1BBD70FC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="a1e3ca88-8ae5-4fd0-ba37-40ce669fcbb0"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>